--- a/Data/EXCData/pp.xlsx
+++ b/Data/EXCData/pp.xlsx
@@ -154,8 +154,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,7 +468,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B1" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +488,7 @@
       <c r="A1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C1" t="s">
@@ -516,7 +517,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>7769</v>
       </c>
       <c r="C2">
@@ -545,7 +546,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>76</v>
       </c>
       <c r="C3">
@@ -574,7 +575,7 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>3203</v>
       </c>
       <c r="C4">
@@ -603,7 +604,7 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>7554</v>
       </c>
       <c r="C5">
@@ -632,7 +633,7 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>7494</v>
       </c>
       <c r="C6">
@@ -661,7 +662,7 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>4719</v>
       </c>
       <c r="C7">
@@ -688,5 +689,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>